--- a/tests/test_docs/RANSAC_SIM.xlsx
+++ b/tests/test_docs/RANSAC_SIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884E53C-4667-4A7D-A983-0B26D00FF07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC1FED-7627-4929-B7D9-4B135F31259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>map4.csv</t>
   </si>
@@ -241,13 +241,375 @@
   </si>
   <si>
     <t>time_avg =  4.006474614143372</t>
+  </si>
+  <si>
+    <t>map3.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 4.249204732143958, 4.2980331128489695, 11.847611491417654, 4.425354785605414, 53.575425811614565, 2.6952372357543526, 2.642044926657736, 3.7254725306945224, 2.5879026888540677, 2.074822765678564, 11.449352615266791, 11.313697754456907, 3.0534215586089886, 12.1235898648042, 10.198096831523724, 22.803398235427288, </t>
+  </si>
+  <si>
+    <t>22.8239179885031, 3.804046304614789, 4.231497809160494]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  9.696106452181803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 10.353954086008125, 1.3474983367166107, 10.16139391056928, 17.283761284658993, 7.8560040802905595, 7.359063977459287, 7.888072578422594, 9.672068339425309, 1.7662500783681723, 21.873893131757022, 5.359552110644876, 8.873272807719125, </t>
+  </si>
+  <si>
+    <t>19.97802368989385, 19.958151534379823, 15.33831443043911, 5.932833135571608, 4.795126155885883, 5.968808338066783, 10.660893354669412]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  9.621346768047323</t>
+  </si>
+  <si>
+    <t>e_avg =  9.658726610114563</t>
+  </si>
+  <si>
+    <t>time_avg =  3.539899671077728</t>
+  </si>
+  <si>
+    <t>[0.0, 0.40902345291485304, 0.9591559203215033, 0.42592508472972873, 0.35793465261285196, 0.1718060134027469, 1.1034819583750497, 0.6688664525457252, 0.9095954830704843, 0.8487865961770448, 0.7512043296922276, 0.44540838549982936, 1.025840637293545, 0.7141198671675739, 0.5023428102742199, 0.4119377367553611, 0.836615109041577, 0.06657214473173051, 0.26452853339960114, 0.4754291933424318]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.5674287180674042</t>
+  </si>
+  <si>
+    <t>[0.0, 0.5728790484608828, 0.9504888562557503, 1.0905917429230956, 0.7561671929846547, 0.9147404159100304, 0.8856078276071211, 0.8443960332766324, 0.49529970508495863, 0.29399602678734715, 0.7882801728214894, 0.7583371922058245, 0.7918776059246373, 1.2968856357771097, 1.6962586191089077, 0.9313843464780445, 0.4599964578601144, 0.7583371922060395, 0.6139293252742498, 0.6300041057762217]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.7764728751361554</t>
+  </si>
+  <si>
+    <t>e_avg =  0.6719507966017798</t>
+  </si>
+  <si>
+    <t>time_avg =  3.19504976272583</t>
+  </si>
+  <si>
+    <t>[0.0, 0.1701649778230045, 0.29732034286505366, 0.17556534652511444, 0.6474212265938255, 0.5412538771580045, 12.030854735820009, 0.5460883462172019, 0.19911879131943397, 0.32340250839132234, 0.3009573749799632, 2.3289306303282666, 0.5392293299809354, 0.5670662651157798, 0.5775594889078023, 1.0810959216458969, 0.6467346965872222, 1.2221087721656327, 0.22385867787099664, 0.6486925895080042]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  1.1533711949901737</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5506858581899676, 0.9384765489684015, 0.7536266644878871, 0.8946548838255156, 0.9525739343464368, 1.2261717085577966, 1.937379298771406, 2.785531050162363, 0.334161671922571, 0.8319026077667346, 3.1206791618643512, 0.937794217304575, 0.9730499390788376, 1.0105872519806847, 0.2834577843338694, 0.3842429622434437, 0.3440638277356338, 1.3477279672545879, 1.0759941114670124]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  1.0841380725131038</t>
+  </si>
+  <si>
+    <t>e_avg =  1.1187546337516387</t>
+  </si>
+  <si>
+    <t>time_avg =  3.5561007857322693</t>
+  </si>
+  <si>
+    <t>[0.0, 1.2311792772720798, 0.478141473228518, 1.0482645822658259, 0.33695305213338345, 1.1463071491718109, 1.246110461775881, 1.5988897137464342, 0.142168205857487, 0.5726648229782323, 1.7263740145122144, 0.9959965610586592, 0.49301602983108744, 0.9636797308842694, 0.12146080710795558, 0.66209949193946, 0.11123828084095767, 1.7275356026425839, 1.6755402310619207, 1.3086293323805267]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.8793124410344644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 0.5113825408576431, 0.16122072910461818, 0.4291759550039508, 0.10942256908124591, 0.04274728911741451, 0.0882961783947866, 0.2915370970039459, 0.0990807875451696, 0.0591785402241412, 0.3362822621222646, 0.17040421320004928, 0.21263046807629282, 0.05038677919673383, 0.1507287821233127, 0.16240911337072955, 0.16492061186277862, 0.12315428803003148, 0.5738383124812739, 0.07696933787937044]     </t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.19068829273378762</t>
+  </si>
+  <si>
+    <t>e_avg =  0.535000366884126</t>
+  </si>
+  <si>
+    <t>time_avg =  3.429006481170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 0.3589034057000215, 0.2724978026721937, 0.4958786419669463, 0.2538440971269937, 0.5047855724875636, 0.022794903530443566, 0.07429078613816399, 0.2287143531856771, 0.09683436859402611, 0.17834672014869787, 0.37124919585229244, 0.4465331370214065, 0.15841924537319743, 0.6513229982499543, 0.10386568175132632, 0.8838585912354687, 0.6615882240665224, 0.31102764424677476, 0.2416599287052556]      </t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.31582076490264627</t>
+  </si>
+  <si>
+    <t>[0.0, 0.5694470830181748, 0.7576254869828272, 0.7656735082212324, 0.7857326920553062, 0.43278742736751363, 0.901520840535012, 0.7539826362155782, 0.9487362947367933, 0.8602124030987108, 0.777320703369434, 0.827290422924973, 0.29493102648363445, 0.8799274998663535, 0.16421708687974085, 0.5747406670534209, 0.5430365339152102, 0.7752919062007446, 1.1335298902678632, 0.8681681809777511]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.6807086145085137</t>
+  </si>
+  <si>
+    <t>e_avg =  0.49826468970558</t>
+  </si>
+  <si>
+    <t>time_avg =  3.6220503568649294</t>
+  </si>
+  <si>
+    <t>[0.0, 0.7507652887128834, 1.0554176602667338, 0.7576162987876208, 1.663956211509925, 0.5513041759992761, 0.3123528649439139, 1.0618179491820243, 1.7681451503048453, 2.994000924873567, 1.1925158666552742, 0.761496769296229, 0.2888401978997963, 0.24599147541094124, 1.0144820831862167, 0.9199250475329411, 1.0843702559065522, 1.155600478891549, 1.2737761720504377, 0.14971628982303148]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.9501045580616878</t>
+  </si>
+  <si>
+    <t>[0.0, 0.07909961287903607, 0.10796853937714206, 0.41726080388324716, 0.13687698485637342, 0.17586073731381255, 0.062249390535692915, 0.12262300116792516, 0.4459552249669157, 0.33216805678588085, 0.6427277064840329, 0.10478163048864625, 0.40918834192134457, 0.33061763302185154, 0.7953643202119147, 0.5987123934058337, 0.6355359088936771, 0.19527412479615866, 0.19189167832365273, 0.10330288653806387]AVERAGE DEVIATION =  0.29437294879256004</t>
+  </si>
+  <si>
+    <t>e_avg =  0.6222387534271239</t>
+  </si>
+  <si>
+    <t>time_avg =  3.259100317955017</t>
+  </si>
+  <si>
+    <r>
+      <t>sample_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFD971F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max_iters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFD971F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inlier_thresh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFD971F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>min_inliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAE81FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>sample_size=100,max_iters=200,inlier_thresh=0.15,min_inliers=4</t>
+  </si>
+  <si>
+    <t>sample_size=50,max_iters=200,inlier_thresh=0.15,min_inliers=4</t>
+  </si>
+  <si>
+    <t>[0.0, 17.181021058401576, 44.69486206718743, 45.864952947274666, 45.143645012633236, 17.16471047288795, 45.55780185412689, 43.65661278595574, 17.108002215525882, 43.740359636996075, 43.53242498398118, 45.08775089857776, 21.27202724255647, 96.7796487847807, 54.33398097693612, 45.78372630472952, 54.97181832853467, 43.92944672629011, 54.07773715065509, 43.014205810290065]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  41.144736762916054</t>
+  </si>
+  <si>
+    <t>[0.0, 14.540954610594495, 13.740458686927168, 17.11745499591844, 16.61182864270625, 14.027836199166973, 16.821481819416665, 17.390182552903703, 8.873462308928307, 14.133128237935974, 16.34177149766176, 13.774583761543413, 14.611596838781017, 14.291791204959338, 4.343905390789211, 19.963775937812244, 13.650620232470054, 14.370686701321945, 16.0710159637192, 12.165052454459227]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  13.64207940190077</t>
+  </si>
+  <si>
+    <t>e_avg =  27.393408082408413</t>
+  </si>
+  <si>
+    <t>time_avg =  4.040600311756134</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1127510918474526, 1.236512939196215, 0.6576542943253826, 1.0658493697263092, 0.7362537827999144, 0.7697668526266367, 1.1209223464595317, 0.9360747423725618, 0.9221581391343164, 0.8834100567766586, 1.0818155001644816, 0.8122811435212032, 0.23890366417695333, 1.0790511286705293, 1.2647493005451187, 1.1413184255974076, 1.045209373570595, 0.7300269331373248, 0.17714807393728355]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.8505928579292938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 0.2556703074510298, 0.38765745503541765, 0.8574008169228157, 0.6061800739689498, 0.34200733201692535, 0.1329969293345261, 0.4069761450113536, 0.648431036425369, 0.07823608568115012, 0.20201566539369611, 0.3293075030565043, 0.42940640557369397, 0.5416640212087597, 0.5134178234323538, 0.17101853144334148, 0.3255847555424237, 0.46338460548249943, 0.40331068770447254, 0.5904937389856943]        </t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.3842579959835488</t>
+  </si>
+  <si>
+    <t>e_avg =  0.6174254269564213</t>
+  </si>
+  <si>
+    <t>time_avg =  3.2486507058143617</t>
+  </si>
+  <si>
+    <t>[0.0, 0.6751488586336577, 0.34952650332858215, 2.8554685378790365, 0.18133989348669885, 0.08051849272525255, 0.9626921233454407, 0.395314165068546, 2.4894655305394067, 0.15365131512675073, 0.28637727369977595, 2.5235384021440095, 0.2937223082429865, 2.4624101977304997, 0.06293395683890503, 0.8947320017366021, 2.542383583690548, 2.5658077917095365, 0.856330282419899, 0.38938180133972966]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  1.051037150984293</t>
+  </si>
+  <si>
+    <t>[0.0, 5.8919145895104155, 5.676783750645802, 16.105869273380346, 7.060641657307744, 6.501417761335579, 5.851086484716932, 6.477255235950399, 109.13873225533804, 7.0495515394004915, 5.969074059321431, 16.148870837701633, 7.211377896559142, 16.427610194306236, 0.12660464464552088, 1.5230777826233624, 6.351128436935337, 0.5063642354774375, 1.0283008815150527, 6.923996945674853]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  11.598482923117285</t>
+  </si>
+  <si>
+    <t>e_avg =  6.324760037050789</t>
+  </si>
+  <si>
+    <t>time_avg =  3.600452494621277</t>
+  </si>
+  <si>
+    <t>[0.0, 0.6180911641712562, 0.43296639259633024, 0.7173797595162813, 1.2294369622621408, 0.7261387618051258, 0.25866777358164494, 0.4537843780031828, 0.45266844291377045, 0.5028394727397194, 0.8728756276894354, 0.5749932666258634, 0.3700233571907759, 0.32140722445276493, 0.4711896002544121, 0.4228281428064033, 0.20420766593559916, 0.3878292238621867, 0.6680761098183281, 1.2322575205316004]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.5458830423378411</t>
+  </si>
+  <si>
+    <t>[0.0, 0.5053871542685725, 0.34916286035815763, 0.5942572826170918, 0.5656465470180455, 0.15866899666468012, 0.5963420277555115, 0.4074914588329703, 0.2219357116110918, 0.5111653393911259, 0.9024254025269286, 0.4710365493975633, 0.661698446662909, 0.5200796726127037, 0.0822495826661775, 0.07374110770076925, 0.9140747742301317, 1.1203379278959475, 0.7060792210889888, 0.13126993872365436]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.4746525001011511</t>
+  </si>
+  <si>
+    <t>e_avg =  0.5102677712194961</t>
+  </si>
+  <si>
+    <t>time_avg =  3.317150318622589</t>
+  </si>
+  <si>
+    <t>[0.0, 0.40247780356975515, 0.5525130241798153, 0.6896001935824408, 0.6187969470824963, 0.38614930850479356, 0.5883784008681617, 0.6525332690420704, 0.9536449868415118, 0.5595095538505359, 0.6788998117199133, 0.3777933022942886, 0.5277159182534312, 0.6615799305134313, 0.8756024801254088, 0.29464965050206, 0.38256378373809413, 0.7380554941307911, 0.5942653123838822, 0.5548856217093694]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.5544807396446125</t>
+  </si>
+  <si>
+    <t>[0.0, 0.4919114297324747, 0.9728902946223198, 0.07754967549341843, 2.29781673650239, 0.21726117822107796, 0.9541144564209294, 0.6910591050337952, 0.959709352821486, 0.39941940058791614, 0.6278370598696058, 0.6700034169396061, 0.598935492620101, 1.187392277175378, 0.5231008253957673, 0.7159086216640043, 0.5420666885719497, 0.9291845136235172, 0.49298514569590757, 0.1984810240318261]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.6773813347511735</t>
+  </si>
+  <si>
+    <t>e_avg =  0.615931037197893</t>
+  </si>
+  <si>
+    <t>time_avg =  3.6370517730712892</t>
+  </si>
+  <si>
+    <t>[0.0, 3.622132793571195, 4.420143637845724, 3.517575697834033, 3.7023727892665277, 3.800053343845022, 3.722582838511197, 3.70582761510116, 3.999730994034484, 4.23696540868042, 3.8797410367260436, 3.7192542106511013, 3.9419303465364512, 0.9441529642706237, 4.64955407978629, 3.622968180785409, 3.5619468342210285, 3.419421817973139, 0.9365265631295229, 2.89135794964728]</t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  3.3147119551208326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0, 0.1679071299965232, 0.160318288108275, 0.6002402898111012, 0.34917359904921924, 0.2538114808305513, 0.8399220380718946, 0.17755149836839806, 0.18716989337710524, 0.07073366604868286, 0.8663968585428943, 0.3769654937332444, 0.43427383735457786, 0.6452055923265868, 0.22419727713677612, 0.10777301569228388, 0.20381144989696875, 0.31902086350086656, 0.05816146342012683, 0.0564461229106333]      </t>
+  </si>
+  <si>
+    <t>AVERAGE DEVIATION =  0.3049539929088354</t>
+  </si>
+  <si>
+    <t>e_avg =  1.809832974014834</t>
+  </si>
+  <si>
+    <t>time_avg =  3.3174507141113283</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +623,37 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFD971F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAE81FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF88846F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,9 +682,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +971,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -588,8 +987,16 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -597,8 +1004,16 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -606,8 +1021,16 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -615,8 +1038,16 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -624,8 +1055,16 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -633,8 +1072,16 @@
       <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -642,8 +1089,16 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -651,8 +1106,16 @@
       <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -660,8 +1123,16 @@
       <c r="G9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -669,8 +1140,16 @@
       <c r="G10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -678,8 +1157,16 @@
       <c r="G11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -687,8 +1174,16 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -696,8 +1191,16 @@
       <c r="G13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -705,8 +1208,16 @@
       <c r="G14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -714,8 +1225,16 @@
       <c r="G15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -723,8 +1242,16 @@
       <c r="G16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -732,8 +1259,16 @@
       <c r="G17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -741,8 +1276,16 @@
       <c r="G18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -750,8 +1293,16 @@
       <c r="G19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -759,8 +1310,16 @@
       <c r="G20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -768,8 +1327,16 @@
       <c r="G21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -777,8 +1344,16 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -786,8 +1361,16 @@
       <c r="G23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="L23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -795,8 +1378,16 @@
       <c r="G24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -804,8 +1395,16 @@
       <c r="G25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -813,8 +1412,16 @@
       <c r="G26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -822,8 +1429,16 @@
       <c r="G27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -831,8 +1446,16 @@
       <c r="G28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -840,8 +1463,16 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -849,8 +1480,16 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -858,8 +1497,16 @@
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -867,8 +1514,16 @@
       <c r="G32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -876,8 +1531,16 @@
       <c r="G33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -885,8 +1548,16 @@
       <c r="G34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -894,8 +1565,16 @@
       <c r="G35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -903,8 +1582,16 @@
       <c r="G36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -912,8 +1599,16 @@
       <c r="G37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -921,8 +1616,16 @@
       <c r="G38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -930,8 +1633,16 @@
       <c r="G39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -939,8 +1650,16 @@
       <c r="G40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+      <c r="L40">
+        <v>11</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -948,8 +1667,16 @@
       <c r="G41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+      <c r="L41">
+        <v>12</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -957,8 +1684,16 @@
       <c r="G42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -966,8 +1701,16 @@
       <c r="G43">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -975,8 +1718,16 @@
       <c r="G44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -984,8 +1735,16 @@
       <c r="G45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -993,8 +1752,16 @@
       <c r="G46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1002,8 +1769,16 @@
       <c r="G47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="L47">
+        <v>18</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1011,8 +1786,16 @@
       <c r="G48" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1020,8 +1803,16 @@
       <c r="G49" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+      <c r="L49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1029,8 +1820,16 @@
       <c r="G50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+      <c r="L50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1038,8 +1837,16 @@
       <c r="G51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K51" s="1"/>
+      <c r="L51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1047,8 +1854,16 @@
       <c r="G52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+      <c r="L52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1056,8 +1871,16 @@
       <c r="G53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+      <c r="L53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1065,8 +1888,16 @@
       <c r="G54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K54" s="1"/>
+      <c r="L54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="1"/>
+      <c r="Q54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1905,16 @@
       <c r="G55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+      <c r="L55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1083,8 +1922,16 @@
       <c r="G56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1092,8 +1939,16 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1101,8 +1956,16 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1110,8 +1973,16 @@
       <c r="G59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1119,8 +1990,16 @@
       <c r="G60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1128,8 +2007,16 @@
       <c r="G61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1137,8 +2024,16 @@
       <c r="G62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1146,8 +2041,16 @@
       <c r="G63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1155,8 +2058,16 @@
       <c r="G64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1164,8 +2075,16 @@
       <c r="G65">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+      <c r="L65">
+        <v>9</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -1173,8 +2092,16 @@
       <c r="G66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
@@ -1182,8 +2109,16 @@
       <c r="G67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+      <c r="L67">
+        <v>11</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -1191,8 +2126,16 @@
       <c r="G68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+      <c r="L68">
+        <v>12</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -1200,8 +2143,16 @@
       <c r="G69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13</v>
       </c>
@@ -1209,8 +2160,16 @@
       <c r="G70">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+      <c r="L70">
+        <v>14</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -1218,8 +2177,16 @@
       <c r="G71">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+      <c r="L71">
+        <v>15</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -1227,8 +2194,16 @@
       <c r="G72">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+      <c r="L72">
+        <v>16</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -1236,8 +2211,16 @@
       <c r="G73">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+      <c r="L73">
+        <v>17</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>17</v>
       </c>
@@ -1245,8 +2228,16 @@
       <c r="G74">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+      <c r="L74">
+        <v>18</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
@@ -1254,8 +2245,16 @@
       <c r="G75">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="Q75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19</v>
       </c>
@@ -1263,8 +2262,16 @@
       <c r="G76">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+      <c r="L76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -1272,8 +2279,16 @@
       <c r="G77" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+      <c r="L77" t="s">
+        <v>94</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -1281,8 +2296,16 @@
       <c r="G78" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K78" s="1"/>
+      <c r="L78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" s="1"/>
+      <c r="Q78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +2313,16 @@
       <c r="G79" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K79" s="1"/>
+      <c r="L79" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1299,8 +2330,16 @@
       <c r="G80" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+      <c r="L80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" s="1"/>
+      <c r="Q80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1308,8 +2347,16 @@
       <c r="G81" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+      <c r="L81" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" s="1"/>
+      <c r="Q81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1317,8 +2364,16 @@
       <c r="G82" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+      <c r="L82" t="s">
+        <v>7</v>
+      </c>
+      <c r="P82" s="1"/>
+      <c r="Q82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1326,8 +2381,16 @@
       <c r="G83" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1"/>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1335,8 +2398,16 @@
       <c r="G84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1"/>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1344,8 +2415,16 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="P85" s="1"/>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -1353,8 +2432,16 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="P86" s="1"/>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1362,8 +2449,16 @@
       <c r="G87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="P87" s="1"/>
+      <c r="Q87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -1371,8 +2466,16 @@
       <c r="G88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="P88" s="1"/>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
@@ -1380,8 +2483,16 @@
       <c r="G89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+      <c r="L89">
+        <v>6</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -1389,8 +2500,16 @@
       <c r="G90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K90" s="1"/>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="P90" s="1"/>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7</v>
       </c>
@@ -1398,8 +2517,16 @@
       <c r="G91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K91" s="1"/>
+      <c r="L91">
+        <v>8</v>
+      </c>
+      <c r="P91" s="1"/>
+      <c r="Q91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -1407,8 +2534,16 @@
       <c r="G92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K92" s="1"/>
+      <c r="L92">
+        <v>9</v>
+      </c>
+      <c r="P92" s="1"/>
+      <c r="Q92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9</v>
       </c>
@@ -1416,8 +2551,16 @@
       <c r="G93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K93" s="1"/>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="P93" s="1"/>
+      <c r="Q93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
@@ -1425,8 +2568,16 @@
       <c r="G94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K94" s="1"/>
+      <c r="L94">
+        <v>11</v>
+      </c>
+      <c r="P94" s="1"/>
+      <c r="Q94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11</v>
       </c>
@@ -1434,8 +2585,16 @@
       <c r="G95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K95" s="1"/>
+      <c r="L95">
+        <v>12</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="Q95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12</v>
       </c>
@@ -1443,8 +2602,16 @@
       <c r="G96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+      <c r="L96">
+        <v>13</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>13</v>
       </c>
@@ -1452,8 +2619,16 @@
       <c r="G97">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+      <c r="L97">
+        <v>14</v>
+      </c>
+      <c r="P97" s="1"/>
+      <c r="Q97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
@@ -1461,8 +2636,16 @@
       <c r="G98">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K98" s="1"/>
+      <c r="L98">
+        <v>15</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
@@ -1470,8 +2653,16 @@
       <c r="G99">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K99" s="1"/>
+      <c r="L99">
+        <v>16</v>
+      </c>
+      <c r="P99" s="1"/>
+      <c r="Q99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -1479,8 +2670,16 @@
       <c r="G100">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+      <c r="L100">
+        <v>17</v>
+      </c>
+      <c r="P100" s="1"/>
+      <c r="Q100">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>17</v>
       </c>
@@ -1488,8 +2687,16 @@
       <c r="G101">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K101" s="1"/>
+      <c r="L101">
+        <v>18</v>
+      </c>
+      <c r="P101" s="1"/>
+      <c r="Q101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
@@ -1497,8 +2704,16 @@
       <c r="G102">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K102" s="1"/>
+      <c r="L102">
+        <v>19</v>
+      </c>
+      <c r="P102" s="1"/>
+      <c r="Q102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>19</v>
       </c>
@@ -1506,8 +2721,16 @@
       <c r="G103">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K103" s="1"/>
+      <c r="L103" t="s">
+        <v>99</v>
+      </c>
+      <c r="P103" s="1"/>
+      <c r="Q103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1515,8 +2738,16 @@
       <c r="G104">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K104" s="1"/>
+      <c r="L104" t="s">
+        <v>100</v>
+      </c>
+      <c r="P104" s="1"/>
+      <c r="Q104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1524,8 +2755,16 @@
       <c r="G105" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K105" s="1"/>
+      <c r="L105" t="s">
+        <v>101</v>
+      </c>
+      <c r="P105" s="1"/>
+      <c r="Q105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1533,8 +2772,16 @@
       <c r="G106" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K106" s="1"/>
+      <c r="L106" t="s">
+        <v>102</v>
+      </c>
+      <c r="P106" s="1"/>
+      <c r="Q106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -1542,8 +2789,16 @@
       <c r="G107" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K107" s="1"/>
+      <c r="L107" t="s">
+        <v>103</v>
+      </c>
+      <c r="P107" s="1"/>
+      <c r="Q107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -1551,8 +2806,16 @@
       <c r="G108" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K108" s="1"/>
+      <c r="L108" t="s">
+        <v>104</v>
+      </c>
+      <c r="P108" s="1"/>
+      <c r="Q108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1560,8 +2823,16 @@
       <c r="G109" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+      <c r="L109" t="s">
+        <v>14</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="Q109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +2840,16 @@
       <c r="G110" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K110" s="1"/>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1"/>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -1578,8 +2857,16 @@
       <c r="G111" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K111" s="1"/>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="P111" s="1"/>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -1587,8 +2874,16 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K112" s="1"/>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="P112" s="1"/>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -1596,8 +2891,16 @@
       <c r="G113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K113" s="1"/>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="P113" s="1"/>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -1605,8 +2908,16 @@
       <c r="G114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K114" s="1"/>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="P114" s="1"/>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -1614,8 +2925,16 @@
       <c r="G115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K115" s="1"/>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="P115" s="1"/>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -1623,8 +2942,16 @@
       <c r="G116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K116" s="1"/>
+      <c r="L116">
+        <v>6</v>
+      </c>
+      <c r="P116" s="1"/>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -1632,8 +2959,16 @@
       <c r="G117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K117" s="1"/>
+      <c r="L117">
+        <v>7</v>
+      </c>
+      <c r="P117" s="1"/>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
@@ -1641,8 +2976,16 @@
       <c r="G118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K118" s="1"/>
+      <c r="L118">
+        <v>8</v>
+      </c>
+      <c r="P118" s="1"/>
+      <c r="Q118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>8</v>
       </c>
@@ -1650,8 +2993,16 @@
       <c r="G119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K119" s="1"/>
+      <c r="L119">
+        <v>9</v>
+      </c>
+      <c r="P119" s="1"/>
+      <c r="Q119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9</v>
       </c>
@@ -1659,8 +3010,16 @@
       <c r="G120">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K120" s="1"/>
+      <c r="L120">
+        <v>10</v>
+      </c>
+      <c r="P120" s="1"/>
+      <c r="Q120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -1668,8 +3027,16 @@
       <c r="G121">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K121" s="1"/>
+      <c r="L121">
+        <v>11</v>
+      </c>
+      <c r="P121" s="1"/>
+      <c r="Q121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11</v>
       </c>
@@ -1677,8 +3044,16 @@
       <c r="G122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K122" s="1"/>
+      <c r="L122">
+        <v>12</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="Q122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
@@ -1686,8 +3061,16 @@
       <c r="G123">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K123" s="1"/>
+      <c r="L123">
+        <v>13</v>
+      </c>
+      <c r="P123" s="1"/>
+      <c r="Q123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
@@ -1695,8 +3078,16 @@
       <c r="G124">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K124" s="1"/>
+      <c r="L124">
+        <v>14</v>
+      </c>
+      <c r="P124" s="1"/>
+      <c r="Q124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -1704,8 +3095,16 @@
       <c r="G125">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K125" s="1"/>
+      <c r="L125">
+        <v>15</v>
+      </c>
+      <c r="P125" s="1"/>
+      <c r="Q125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>15</v>
       </c>
@@ -1713,8 +3112,16 @@
       <c r="G126">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K126" s="1"/>
+      <c r="L126">
+        <v>16</v>
+      </c>
+      <c r="P126" s="1"/>
+      <c r="Q126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16</v>
       </c>
@@ -1722,8 +3129,16 @@
       <c r="G127">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K127" s="1"/>
+      <c r="L127">
+        <v>17</v>
+      </c>
+      <c r="P127" s="1"/>
+      <c r="Q127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>17</v>
       </c>
@@ -1731,8 +3146,16 @@
       <c r="G128">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K128" s="1"/>
+      <c r="L128">
+        <v>18</v>
+      </c>
+      <c r="P128" s="1"/>
+      <c r="Q128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -1740,8 +3163,16 @@
       <c r="G129">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K129" s="1"/>
+      <c r="L129">
+        <v>19</v>
+      </c>
+      <c r="P129" s="1"/>
+      <c r="Q129">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>19</v>
       </c>
@@ -1749,8 +3180,16 @@
       <c r="G130">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K130" s="1"/>
+      <c r="L130" t="s">
+        <v>105</v>
+      </c>
+      <c r="P130" s="1"/>
+      <c r="Q130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -1758,8 +3197,16 @@
       <c r="G131">
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K131" s="1"/>
+      <c r="L131" t="s">
+        <v>106</v>
+      </c>
+      <c r="P131" s="1"/>
+      <c r="Q131" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -1767,8 +3214,16 @@
       <c r="G132" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K132" s="1"/>
+      <c r="L132" t="s">
+        <v>107</v>
+      </c>
+      <c r="P132" s="1"/>
+      <c r="Q132" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -1776,8 +3231,16 @@
       <c r="G133" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K133" s="1"/>
+      <c r="L133" t="s">
+        <v>108</v>
+      </c>
+      <c r="P133" s="1"/>
+      <c r="Q133" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -1785,8 +3248,16 @@
       <c r="G134" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K134" s="1"/>
+      <c r="L134" t="s">
+        <v>109</v>
+      </c>
+      <c r="P134" s="1"/>
+      <c r="Q134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -1794,8 +3265,16 @@
       <c r="G135" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K135" s="1"/>
+      <c r="L135" t="s">
+        <v>72</v>
+      </c>
+      <c r="P135" s="1"/>
+      <c r="Q135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -1803,8 +3282,16 @@
       <c r="G136" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K136" s="1"/>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1"/>
+      <c r="Q136" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -1812,10 +3299,232 @@
       <c r="G137" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K137" s="1"/>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="P137" s="1"/>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>63</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="Q140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>5</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>7</v>
+      </c>
+      <c r="Q143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>8</v>
+      </c>
+      <c r="Q144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>9</v>
+      </c>
+      <c r="Q145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>10</v>
+      </c>
+      <c r="Q146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>11</v>
+      </c>
+      <c r="Q147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>12</v>
+      </c>
+      <c r="Q148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>13</v>
+      </c>
+      <c r="Q149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>14</v>
+      </c>
+      <c r="Q150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>15</v>
+      </c>
+      <c r="Q151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>16</v>
+      </c>
+      <c r="Q152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>17</v>
+      </c>
+      <c r="Q153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>18</v>
+      </c>
+      <c r="Q154">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>19</v>
+      </c>
+      <c r="Q155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L156" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q156">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L157" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L160" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L161" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L162" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L163" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L165" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
